--- a/big-data/big-data-capstone/project/data/beer_n_Kabrew Namsan Mountain Premium Citra Ale.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Kabrew Namsan Mountain Premium Citra Ale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,82 +566,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GoufCustom(3,017)
-🇭🇰Hong Kong
-3.8March 22, 2021
-500ml can bought at Fusion in Fanling Town Centre, Fanling. 
-Looks: Translucent dull golden honey colour with trace of mist…
-Show more
-CAN
-Aroma
-8
-Appearance
-4
-Flavor
-8
-Mouthfeel
-4
-Overall
-14</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Kabrew Namsan Mountain Premium Citra Ale</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Kabrew Namsan Mountain Premium Citra Ale</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ISA - Session IPA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>30 IBU</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Namsan Mountain is a premium ale that combines Citra hop's lemon and orange scents with Mosaic hop's passion fruit and black currant scent.</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>135 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
